--- a/Cattails_aob.xlsx
+++ b/Cattails_aob.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Rafal\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B7CD2C1-6FF5-4B6B-BBE3-E9B147B19980}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323F0500-37FD-4B2D-BA2C-C65CB4F0A983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{3F9BC8D1-4B95-461A-9E6C-CA1994D02E5A}"/>
   </bookViews>
@@ -495,7 +495,7 @@
   <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Cattails_aob.xlsx
+++ b/Cattails_aob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323F0500-37FD-4B2D-BA2C-C65CB4F0A983}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B1D359-866B-4539-8AFE-F8D7883A240E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{3F9BC8D1-4B95-461A-9E6C-CA1994D02E5A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 78 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 00 00 00 00 00 60 6B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 F1 80 B2 29 57 38 18 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 72 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 C0 72 40 00 00 00 00 00 00 00 00 9A 99 99 99 99 99 E9 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 7A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 80 4C 9A 12 00 00 F0 3F 00 00 00 00 05 00 00 00 60 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 AF 9B 12 00 00 2E 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D4 9E 40 00 00 00 00 00 00 00 00 B0 61 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 18 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 9A 99 99 99 99 99 E1 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 A0 6A 39 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 B2 A0 40 00 00 00 00 00 00 00 00 18 2D 44 54 FB 21 19 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F8 85 40 00 00 00 00 00 00 00 00 80 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 7F 39 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 18 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 C0 00 00 00 00 00 00 00 00 00 00 00 00 E0 0C 04 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 60 45 9A 12 00 00 74 40 00 00 00 00 05 00 00 00 00 00 00 00 00 C0 6B 40 00 00 00 00 00 00 00 00 F0 15 9C 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 20 AC 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 68 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 E0 EC 15 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 14 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 7C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 6C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 51 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 52 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 53 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 54 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 55 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 57 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 56 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 58 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 A8 D1 03 41 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 65 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 C0 2E 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 07 9C 12 00 00 26 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 90 62 9A 12 00 00 08 40 00 00 00 00 05 00 00 00 D0 49 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 40 EC 17 12 E1 7A D4 3F 00 00 00 00 01 00 00 00 50 F7 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 40 00 00 00 00 00 00 00 00 F0 3F 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 40 54 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 10 66 9A 12 00 00 F0 3F 00 00 00 00 05 00 00 00 50 44 9A 12 00 00 08 40 00 00 00 00 05 00 00 00 40 63 9A 12 00 70 74 40 00 00 00 00 05 00 00 00 C0 45 9D 12 00 70 74 40 00 00 00 00 05 00 00 00 C0 2D 9D 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 30 7D 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 9C 91 40 00 00 00 00 00 00 00 00 00 00 00 00 00 50 79 40 00 00 00 00 00 00 00 00 F0 39 9D 12 00 00 08 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D8 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 D0 7F 9B 12 00 00 08 40 00 00 00 00 05 00 00 00 00 00 00 00 00 54 93 40 00 00 00 00 00 00 00 00 A0 10 38 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 88 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 E0 4D 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 C0 D1 03 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 64 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 64 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 86 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 78 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 62 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 5B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 59 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 18 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 18 84 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 28 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 5D 40 00 00 00 00 00 00 00 00 00 00 00 00 00 68 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 6E 09 1F 37 E9 A3 C5 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 D4 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 4D 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 60 40 00 00 00 00 00 00 00 00 00 00 00 60 B8 1E D5 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 90 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 18 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 6E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 40 56 40 00 00 00 00 00 00 00 00 E0 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 9A 99 99 99 99 99 D9 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 4F 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 60 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 54 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 80 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 50 7E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 7E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 71 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 50 78 40 00 00 00 00 00 00 00 00 00 00 58 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 08 8B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 30 18 9D 12 00 70 74 40 00 00 00 00 05 00 00 00 00 00 00 80 99 99 59 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 A0 4D 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 C0 00 00 00 00 00 00 00 00 F1 80 B2 29 57 38 18 40 00 00 00 00 00 00 00 00 00 51 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 A0 62 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 81 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 85 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 14 40 00 00 00 00 00 00 00 00 C0 68 39 12 00 00 00 00 00 00 00 00 01 00 00 00 60 07 B8 14 00 00 00 00 00 00 00 00 01 00 00 00 00 4F 37 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 CC 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 40 00 00 00 00 00 00 00 00 00 00 00 00 D7 A3 E8 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 4F 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 60 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 78 82 40 00 00 00 00 00 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 2E 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 20 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 1C 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 18 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 14 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 20 4C 19 12 00 00 00 00 07 00 00 00 01 00 00 00 F0 BD B7 14 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 18 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 26 40 07 00 00 00 00 00 00 00 A0 77 F2 11 00 00 00 00 07 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 2E 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 7F 39 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 18 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 C0 00 00 00 00 00 00 00 00 00 00 00 00 E0 0C 04 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 C0 30 9A 12 00 A0 8E 40 00 00 00 00 05 00 00 00 00 00 00 00 00 C0 6B 40 00 00 00 00 00 00 00 00 F0 15 9C 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 20 AC 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 68 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 E0 EC 15 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 14 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 7C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 6C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 51 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 52 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 53 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 54 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 55 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 57 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 56 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 58 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 A8 D1 03 41 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 65 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 C0 2E 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 07 9C 12 00 00 26 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 90 62 9A 12 00 00 08 40 00 00 00 00 05 00 00 00 D0 49 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 40 EC 17 12 E1 7A D4 3F 00 00 00 00 01 00 00 00 50 F7 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 F0 3F 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 40 54 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 10 66 9A 12 00 00 F0 3F 00 00 00 00 05 00 00 00 50 44 9A 12 00 00 08 40 00 00 00 00 05 00 00 00 40 63 9A 12 00 70 74 40 00 00 00 00 05 00 00 00 C0 45 9D 12 00 70 74 40 00 00 00 00 05 00 00 00 C0 2D 9D 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 30 7D 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 9C 91 40 00 00 00 00 00 00 00 00 00 00 00 00 00 50 79 40 00 00 00 00 00 00 00 00 F0 39 9D 12 00 00 08 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D8 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 D0 7F 9B 12 00 00 08 40 00 00 00 00 05 00 00 00 00 00 00 00 00 54 93 40 00 00 00 00 00 00 00 00 A0 10 38 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 88 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 E0 4D 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 C0 D1 03 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 64 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 64 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 86 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 78 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 62 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 5B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 59 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 18 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 18 84 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 28 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 5D 40 00 00 00 00 00 00 00 00 00 00 00 00 00 68 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 6E 09 1F 37 E9 A3 C5 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 D4 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 4D 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 60 40 00 00 00 00 00 00 00 00 00 00 00 60 B8 1E D5 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 90 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 18 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 6E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 40 56 40 00 00 00 00 00 00 00 00 E0 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 9A 99 99 99 99 99 D9 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 4F 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 60 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 54 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 80 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 50 7E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 7E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 71 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 50 78 40 00 00 00 00 00 00 00 00 00 00 58 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 08 8B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 30 18 9D 12 00 70 74 40 00 00 00 00 05 00 00 00 00 00 00 80 99 99 59 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 A0 4D 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 C0 00 00 00 00 00 00 00 00 F1 80 B2 29 57 38 18 40 00 00 00 00 00 00 00 00 00 51 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 A0 62 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 81 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 85 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 14 40 00 00 00 00 00 00 00 00 C0 68 39 12 00 00 00 00 00 00 00 00 01 00 00 00 60 07 B8 14 00 00 00 00 00 00 00 00 01 00 00 00 00 4F 37 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 CC 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 40 00 00 00 00 00 00 00 00 00 00 00 00 D7 A3 E8 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 4F 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 60 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 78 82 40 00 00 00 00 00 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 2E 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 20 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 1C 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 18 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 14 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 20 4C 19 12 00 00 00 00 07 00 00 00 01 00 00 00 F0 BD B7 14 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 18 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 26 40 07 00 00 00 00 00 00 00 A0 77 F2 11 00 00 00 00 07 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 2E 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 9A 99 99 99 99 99 F9 3F 07 00 00 00 00 00 00 00 80 E4 E1 00 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 59 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 59 40 07 00 00 00 00 00 00 00 9A 99 99 99 99 99 D9 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 80 54 40 07 00 00 00 00 00 00 00 00 00 00 00 00 40 54 40 07 00 00 00 00 00 00 00 00 00 00 00 00 40 51 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 3B 40 07 00 00 00 00 00 00 00 00 00 00 00 00 80 56 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 56 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 40 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 30 40 07 00 00 00 00 00 00 00 00 00 00 00 00 C0 55 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 2A 40 07 00 00 00 00 00 00 00 00 00 00 00 00 80 49 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 4A 40 07 00 00 00 00 00 00 00 00 00 00 00 20 02 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 20 02 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 40 02 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 40 02 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 E0 00 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 00 01 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 80 00 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 60 00 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 40 01 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 20 00 E0 40 07 00 00 00 00 00 00 00 00 00 00 00 40 00 E0 40 07 00 00 00 00 00 00 00</t>
-  </si>
-  <si>
-    <t>00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 80 0A 00 12 00 00 00 00 07 00 00 00 01 00 00 00 A0 0A 00 12 00 00 00 00 00 00 00 00 01 00 00 00 E0 0A 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 20 0B 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 40 0B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 DC 97 40 00 00 00 00 00 00 00 00 70 0B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 18 B5 40 00 00 00 00 00 00 00 00 A0 0B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 B0 0B 00 12 00 00 00 00 00 00 00 00 01 00 00 00 D0 0B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 18 99 40 00 00 00 00 00 00 00 00 F0 0B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 0C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 30 0C 00 12 00 00 00 00 00 00 00 00 01 00 00 00 70 0C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 90 0C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 0C 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 D0 0C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 D8 97 40 00 00 00 00 00 00 00 00 00 0D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 18 C5 40 00 00 00 00 00 00 00 00 30 0D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 40 0D 00 12 00 00 00 00 00 00 00 00 01 00 00 00 60 0D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 14 99 40 00 00 00 00 00 00 00 00 80 0D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 A0 0D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 C0 0D 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 0E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 20 0E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 0E 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 60 0E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 D4 97 40 00 00 00 00 00 00 00 00 90 0E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 20 DC 40 00 00 00 00 00 00 00 00 C0 0E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 0E 00 12 00 00 00 00 00 00 00 00 01 00 00 00 F0 0E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 10 99 40 00 00 00 00 00 00 00 00 10 0F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 30 0F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 0F 00 12 00 00 00 00 00 00 00 00 01 00 00 00 90 0F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 0F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 0F 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 F0 0F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 CC 97 40 00 00 00 00 00 00 00 00 20 10 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 20 9C 40 00 00 00 00 00 00 00 00 50 10 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 10 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 10 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 08 99 40 00 00 00 00 00 00 00 00 A0 10 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 10 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 10 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 11 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 11 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 60 11 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 80 11 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 C8 97 40 00 00 00 00 00 00 00 00 B0 11 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 20 CC 40 00 00 00 00 00 00 00 00 E0 11 00 12 00 00 00 00 07 00 00 00 01 00 00 00 F0 11 00 12 00 00 00 00 00 00 00 00 01 00 00 00 10 12 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 04 99 40 00 00 00 00 00 00 00 00 30 12 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 50 12 00 12 00 00 00 00 07 00 00 00 01 00 00 00 70 12 00 12 00 00 00 00 00 00 00 00 01 00 00 00 B0 12 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 12 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 12 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 10 13 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 B8 97 40 00 00 00 00 00 00 00 00 40 13 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 80 66 40 00 00 00 00 00 00 00 00 70 13 00 12 00 00 00 00 07 00 00 00 01 00 00 00 80 13 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 13 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 99 40 00 00 00 00 00 00 00 00 C0 13 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 E0 13 00 12 00 00 00 00 07 00 00 00 01 00 00 00 00 14 00 12 00 00 00 00 00 00 00 00 01 00 00 00 D0 15 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 60 14 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4C 38 12 00 00 00 00 00 00 00 00 01 00 00 00 EF 34 D2 52 39 F9 90 40 00 00 00 00 00 00 00 00 08 00 00 00 04 00 00 00 07 00 00 00 04 00 00 00 00 1E 96 13 00 00 00 00 00 00 00 00 00 00 00 00 A0 14 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 C4 97 40 00 00 00 00 00 00 00 00 D0 14 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 20 9C 40 00 00 00 00 00 00 00 00 00 15 00 12 00 00 00 00 00 00 00 00 01 00 00 00 10 15 00 12 00 00 00 00 00 00 00 00 01 00 00 00 30 15 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 FC 98 40 00 00 00 00 00 00 00 00 50 15 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 70 15 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 15 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 94 39 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 95 39 12 00 00 00 00 00 00 00 00 01 00 00 00 00 16 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 16 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 16 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 16 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 16 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 16 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 16 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 16 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 17 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 17 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 17 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 17 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 17 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 17 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 17 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 17 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 18 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 18 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 18 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 18 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 18 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 18 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 18 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 18 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 19 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 19 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 19 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 19 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 19 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 19 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 19 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 19 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 1A 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 1A 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 1A 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 1A 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 1A 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 1A 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 1A 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 1A 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 1B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 1B 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 1B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 1B 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 1B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 1B 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 1B 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 1B 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 1C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 1C 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 1C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 1C 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 1C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 1C 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 1C 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 1C 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 1D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 1D 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 1D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 1D 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 1D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 1D 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 1D 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 1D 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 1E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 1E 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 1E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 1E 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 1E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 1E 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 1E 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 1E 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 1F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 1F 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 1F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 1F 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 1F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 1F 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 1F 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 1F 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 20 00 12 00 00 00 00 07 00 00 00 01 00 00 00 60 20 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 20 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 20 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 20 00 12 00 00 00 00 07 00 00 00 01 00 00 00 E0 20 00 12 00 00 00 00 00 00 00 00 01 00 00 00 A0 20 00 12 00 00 00 00 07 00 00 00 01 00 00 00 D0 20 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 21 00 12 00 00 00 00 07 00 00 00 01 00 00 00 50 21 00 12 00 00 00 00 00 00 00 00 01 00 00 00 20 21 00 12 00 00 00 00 07 00 00 00 01 00 00 00 40 21 00 12 00 00 00 00 00 00 00 00 01 00 00 00 01 00 00 00 30 30 DC 00 40 6E 9D 12 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 70 21 00 12 00 00 00 00 07 00 00 00 01 00 00 00 C0 21 00 12 00 00 00 00 00 00 00 00 01 00 00 00 90 21 00 12 00 00 00 00 07 00 00 00 01 00 00 00 B0 21 00 12 00 00 00 00 00 00 00 00 01 00 00 00 E0 21 00 12 00 00 00 00 07 00 00 00 01 00 00 00 40 22 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 22 00 12 00 00 00 00 07 00 00 00 01 00 00 00 30 22 00 12 00 00 00 00 00 00 00 00 01 00 00 00 60 22 00 12 00 00 00 00 07 00 00 00 01 00 00 00 C0 22 00 12 00 00 00 00 00 00 00 00 01 00 00 00 80 22 00 12 00 00 00 00 07 00 00 00 01 00 00 00 B0 22 00 12 00 00 00 00 00 00 00 00 01 00 00 00 E0 22 00 12 00 00 00 00 07 00 00 00 01 00 00 00 40 23 00 12 00 00 00 00 00 00 00 00 01 00 00 00 00 23 00 12 00 00 00 00 07 00 00 00 01 00 00 00 30 23 00 12 00 00 00 00 00 00 00 00 01 00 00 00 60 23 00 12 00 00 00 00 07 00 00 00 01 00 00 00</t>
   </si>
   <si>
     <t>30s = 1800 double value, so 1s = 60 value, is it amount of frames?</t>
@@ -138,6 +135,15 @@
   </si>
   <si>
     <t>00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 E0 A7 57 00 50 A8 57 00 60 46 57 00 A0 F1 57 00 60 B2 57 00 E0 A7 57 00 50 A8 57 00 60 46 57 00 A0 F1 57 00 60 B2 57 00 60 46 57 00 50 A8 57 00 80 60 57 00 60 B2 57 00 00 00 00 00 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 02 00 00 00 03 00 00 00 04 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 01 00 00 00 02 00 00 00 03 00 00 00 04 00 00 00 00 00 00 00 05 00 00 00 06 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 50 A8 57 00 70 26 58 00 50 A8 57 00 70 26 58 00 C0 20 58 00 B0 0C 58 00 90 20 58 00 B0 0C 58 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 60 46 57 00 60 B2 57 00 60 46 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 50 A8 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 01 00 00 00 02 00 00 00 00 00 00 00 03 00 00 00 04 00 00 00 05 00 00 00 06 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 08 77 00 ?? FF FF FF ?? FF FF FF ?? 00 00 00 ?? 00 00 00 ?? 00 00 00 ?? 00 00 00 ?? ?? ?? ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 08 77 00 ?? FF FF FF ?? FF FF FF ?? 00 00 00 ?? 00 00 00 ?? 00 00 00 ?? 00 00 00 ?? ?? ?? ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 90 20 58 00 80 60 57 00 60 B2 57 00 60 46 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 00 00 00 00 00 00 00 00 00 00 00 00 00 8C A0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 94 A0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 90 A0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 92 A0 40 00 00 00 00 00 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 06 00 00 00 40 02 00 00 40 01 00 00 00 00 00 00 00 00 00 00 80 ?? ?? 12 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 12 00 00 00 00 00 00 00 00 06 00 00 00 40 02 00 00 40 01 00 00 00 00 00 00 00 00 00 00 80 ?? ?? 12 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 12 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 01 00 00 00 01 00 00 00 ?? ?? 06 00 ?? 00 00 00 00 00 80 3F 00 00 80 3F 00 00 80 3F 00 00 00 00 00 00 00 00 FF FF FF FF 01 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 00 00 00 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 50 A8 57 00 60 B2 57 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 02 00 00 00 03 00 00 00 00 00 00 00 04 00 00 00 05 00 00 00 00 00 00 00 06 00 00 00 07 00 00 00 00 00 00 00 08 00 00 00 09 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? 40 00 00 00 00 00 00 00 00 00 00 00 00 00 40 8F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 40 8F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? 00 00 00 00 00 00 00 00 57 61 6E 74 65 64 3A 20 67 2A 33 20 67 2A 43 72 6F 77 73 20 6F 72 20 67 2A 44 6F 76 65 73 2E 20 50 61 79 6D 65 6E 74 20 6F 6E 20 64 65 6C 69 76 65 72 79 2E 00 00 00 00 00 00 00 00 01 00 00 00 4C 6F 6F 6B 69 6E 67 20 66 6F 72 20 73 6F 6D 65 20 66 72 65 73 68 20 67 2A 43 61 74 6E 69 70 21 20 67 2A 32 20 73 68 6F 75 6C 64 20 64 6F 2E 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 ?? ?? ?? ?? ?? ?? ?? ?? ?? 00 00 00 ?? 00 00 00 ?? ?? ?? ?? ?? ?? ?? ?? 00 00 ?? ?? 00 00 ?? ?? 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? ?? 00 00 ?? 00 00 00 00 00 00 00 00 20 ?? ?? 00 C0 ?? ?? ?? A0 ?? ?? ?? 80 ?? ?? ?? 40 ?? ?? ?? 20 ?? ?? ?? 00 ?? ?? ?? ?? ?? ?? 11 60 ?? ?? ?? ?? ?? ?? 11 ?? ?? ?? 11 ?? ?? ?? 11 ?? ?? ?? 11 ?? ?? ?? 11 00 00 00 00 00 00 00 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? 00 ?? ?? ?? 00 ?? ?? ?? ?? ?? ?? ?? 00 ?? ?? ?? 00 00 00 00 00 00 00 00 00 00 40 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 3C 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 38 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 74 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 70 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 43 6F 6C 6C 65 63 74 20 35 30 20 4D 6F 6C 65 20 43 61 73 68 20 61 73 20 79 6F 75 72 20 72 65 77 61 72 64 2E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 00 00 00 00 00 6C 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 14 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 08 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 04 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0C 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 68 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 34 40 00 00 00 00 00 00 00 00 00 00 00 00 00 64 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 34 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 5C 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 58 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 54 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 50 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4C 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 54 77 65 6E 74 79 2D 66 69 76 65 20 73 74 75 72 64 79 20 77 61 6C 6C 20 70 69 65 63 65 73 20 66 6F 72 20 79 6F 75 72 20 63 75 73 74 6F 6D 20 63 6F 6C 6F 6E 79 2E 00 78 78 78 78 78 78 78 78 78 00 00 00 00 00 40 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 54 65 6E 20 73 74 75 72 64 79 20 77 61 6C 6C 20 70 69 65 63 65 73 20 66 6F 72 20 79 6F 75 72 20 63 75 73 74 6F 6D 20 63 6F 6C 6F 6E 79 2E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 00 00 00 00 00 40 9E 40 00 00 00 00 00 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 11 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 46 69 76 65 20 73 74 75 72 64 79 20 77 61 6C 6C 20 70 69 65 63 65 73 20 66 6F 72 20 79 6F 75 72 20 63 75 73 74 6F 6D 20 63 6F 6C 6F 6E 79 2E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78</t>
+  </si>
+  <si>
+    <t>00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 ?? ?? ?? ?? ?? ?? 78 78 78 78 78 78 78 78 78 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 DC 97 40 00 00 00 00 00 00 00 00 70 ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 18 B5 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 18 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 ?? ?? ?? ?? 78 78 78 78 78 78 78 78 78 78 78 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 D8 97 40 00 00 00 00 00 00 00 00 00 ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 ?? ?? 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 14 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 ?? ?? ?? ?? ?? ?? 78 78 78 78 78 78 78 78 78 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 D4 97 40 00 00 00 00 00 00 00 00 90 ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 ?? ?? 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 10 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 CC 97 40 00 00 00 00 00 00 00 00 20 ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 ?? ?? 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 08 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 63 6F 6F 6C 64 6F 77 6E 5F 63 75 72 72 65 6E 74 00 ?? ?? ?? ?? ?? 78 78 78 78 78 78 78 78 78 78 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 C8 97 40 00 00 00 00 00 00 00 00 B0 ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 ?? ?? 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 04 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 B8 97 40 00 00 00 00 00 00 00 00 40 ?? ?? ?? 00 00 00 00 ?? 00 00 00 01 00 00 00 00 00 00 00 00 80 66 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 99 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 ?? ?? 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? ?? ?? ?? 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? 00 ?? ?? ?? ?? 00 ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 C4 97 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 ?? ?? 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 FC 98 40 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 01 00 00 00 ?? ?? ?? 00 40 ?? ?? 12 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 07 00 00 00 01 00 00 00</t>
+  </si>
+  <si>
+    <t>All skill countdown timers are offset by 0x140 (which is probably the struct size) from each other</t>
+  </si>
+  <si>
+    <t>"Sprint Skill" has always the highest address</t>
   </si>
 </sst>
 </file>
@@ -492,10 +498,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9015E4F-4E77-4537-9940-2CDA23F7F087}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,134 +511,144 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
       <c r="B7" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>32</v>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +671,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Cattails_aob.xlsx
+++ b/Cattails_aob.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61B1D359-866B-4539-8AFE-F8D7883A240E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CCDB2CD-AD00-44D4-A02D-E8CD45B0CDF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7500" xr2:uid="{3F9BC8D1-4B95-461A-9E6C-CA1994D02E5A}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 78 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 00 00 00 00 00 60 6B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 F1 80 B2 29 57 38 18 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 72 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 C0 72 40 00 00 00 00 00 00 00 00 9A 99 99 99 99 99 E9 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 7A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 80 4C 9A 12 00 00 F0 3F 00 00 00 00 05 00 00 00 60 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 AF 9B 12 00 00 2E 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D4 9E 40 00 00 00 00 00 00 00 00 B0 61 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 18 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 9A 99 99 99 99 99 E1 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 A0 6A 39 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 B2 A0 40 00 00 00 00 00 00 00 00 18 2D 44 54 FB 21 19 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F8 85 40 00 00 00 00 00 00 00 00 80 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 7F 39 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 18 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 C0 00 00 00 00 00 00 00 00 00 00 00 00 E0 0C 04 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 60 45 9A 12 00 00 74 40 00 00 00 00 05 00 00 00 00 00 00 00 00 C0 6B 40 00 00 00 00 00 00 00 00 F0 15 9C 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 20 AC 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 68 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 E0 EC 15 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 14 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 7C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 6C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 51 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 52 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 53 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 54 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 55 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 57 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 56 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 58 B0 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 A8 D1 03 41 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 65 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 C0 2E 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 07 9C 12 00 00 26 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 90 62 9A 12 00 00 08 40 00 00 00 00 05 00 00 00 D0 49 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 40 EC 17 12 E1 7A D4 3F 00 00 00 00 01 00 00 00 50 F7 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 40 00 00 00 00 00 00 00 00 F0 3F 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 40 54 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 10 66 9A 12 00 00 F0 3F 00 00 00 00 05 00 00 00 50 44 9A 12 00 00 08 40 00 00 00 00 05 00 00 00 40 63 9A 12 00 70 74 40 00 00 00 00 05 00 00 00 C0 45 9D 12 00 70 74 40 00 00 00 00 05 00 00 00 C0 2D 9D 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 30 7D 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 9C 91 40 00 00 00 00 00 00 00 00 00 00 00 00 00 50 79 40 00 00 00 00 00 00 00 00 F0 39 9D 12 00 00 08 40 00 00 00 00 05 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D8 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 D0 7F 9B 12 00 00 08 40 00 00 00 00 05 00 00 00 00 00 00 00 00 54 93 40 00 00 00 00 00 00 00 00 A0 10 38 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 88 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 E0 4D 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 C0 D1 03 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 64 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 64 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 86 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 78 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 62 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 5B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 59 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 18 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 18 84 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 28 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 5D 40 00 00 00 00 00 00 00 00 00 00 00 00 00 68 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 6E 09 1F 37 E9 A3 C5 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 D4 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 4D 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 60 40 00 00 00 00 00 00 00 00 00 00 00 60 B8 1E D5 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 90 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 18 C0 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 6E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 40 56 40 00 00 00 00 00 00 00 00 E0 4E 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 9A 99 99 99 99 99 D9 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 4F 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 60 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 54 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 80 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 50 7E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 60 7E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 71 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 24 40 00 50 78 40 00 00 00 00 00 00 00 00 00 00 58 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 08 8B 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 30 18 9D 12 00 70 74 40 00 00 00 00 05 00 00 00 00 00 00 80 99 99 59 41 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 A0 4D 9A 12 00 00 00 00 00 00 00 00 05 00 00 00 00 00 00 00 00 00 08 40 00 00 00 00 00 00 00 00 00 00 00 00 00 C0 7F 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 C0 00 00 00 00 00 00 00 00 F1 80 B2 29 57 38 18 40 00 00 00 00 00 00 00 00 00 51 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 0D 00 00 00 00 00 00 00 00 00 10 40 00 00 00 00 00 00 00 00 00 00 00 00 00 A0 62 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 8C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 81 40 00 00 00 00 00 00 00 00 00 00 00 00 00 80 85 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 14 40 00 00 00 00 00 00 00 00 C0 68 39 12 00 00 00 00 00 00 00 00 01 00 00 00 60 07 B8 14 00 00 00 00 00 00 00 00 01 00 00 00 00 4F 37 12 00 00 00 00 00 00 00 00 01 00 00 00 00 00 00 00 00 00 2A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4C 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 D0 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 B0 8A 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 CC 9E 40 00 00 00 00 00 00 00 00 00 00 00 00 00 88 C3 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 48 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 4E 40 00 00 00 00 00 00 00 00 00 00 00 00 D7 A3 E8 3F 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 E0 4F 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 60 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 50 3D 12 00 00 00 00 00 00 00 00 02 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 78 82 40 00 00 00 00 00 00 00 00 00 00 00 00 00 84 93 40 00 00 00 00 00 00 00 00 00 00 00 00 00 00 2E 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 20 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 1C 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 18 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 14 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 10 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 08 40 07 00 00 00 00 00 00 00 20 4C 19 12 00 00 00 00 07 00 00 00 01 00 00 00 F0 BD B7 14 00 00 00 00 07 00 00 00 01 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 18 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 26 40 07 00 00 00 00 00 00 00 A0 77 F2 11 00 00 00 00 07 00 00 00 02 00 00 00 00 00 00 00 00 00 F0 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 F0 BF 07 00 00 00 00 00 00 00 00 00 00 00 00 00 E8 3F 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00 00 00 00 00 00 00 2E 40 07 00 00 00 00 00 00 00 00 00 00 00 00 00 00 00 07 00 00 00 00 00 00 00</t>
   </si>
@@ -144,6 +144,12 @@
   </si>
   <si>
     <t>"Sprint Skill" has always the highest address</t>
+  </si>
+  <si>
+    <t>Equipment slots ID's</t>
+  </si>
+  <si>
+    <t>35 31 43 38 46 46 45 42 37 45 37 32 31 37 34 30 35 38 37 43 46 39 31 42 30 44 43 32 44 32 42 33 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 38 46 30 34 33 37 39 33 30 42 33 38 33 44 46 31 32 34 45 45 41 31 38 34 44 30 41 43 41 34 37 33 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 41 35 46 38 45 45 32 36 45 36 32 45 46 31 43 37 46 37 45 32 42 46 42 35 42 32 35 36 46 41 37 42 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 45 45 34 37 38 35 44 32 38 33 36 34 46 34 39 45 45 45 38 43 41 30 35 45 41 43 44 44 46 37 31 36 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 46 37 32 35 31 32 38 35 46 36 39 41 34 38 34 45 39 36 42 46 42 32 38 38 32 38 45 41 36 41 31 38 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 32 41 42 43 35 33 38 31 38 35 35 43 39 44 38 33 34 39 32 30 46 38 31 45 43 38 42 35 36 37 34 42 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 44 42 41 33 41 32 46 36 31 35 31 44 45 32 45 42 37 33 34 34 45 44 41 30 33 37 36 46 32 41 32 30 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 41 32 46 46 37 38 31 39 42 34 32 37 31 44 35 44 44 33 36 44 45 37 43 33 34 33 36 39 41 41 33 30 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 47 72 65 67 6F 72 79 20 4D 63 44 61 6E 69 65 6C 20 4A 72 2E 20 61 6E 64 20 53 61 6D 61 6E 74 68 61 20 4D 63 44 61 6E 69 65 6C 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 5A 61 63 68 61 72 79 20 54 61 6C 6F 6E 73 20 26 20 6B 61 77 61 69 69 72 61 69 6E 62 6F 77 31 38 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 49 6E 20 6D 65 6D 6F 72 79 20 6F 66 20 48 6F 62 62 65 73 2E 20 4C 6F 76 65 20 4A 6F 6E 2B 44 61 6E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 43 68 61 72 79 73 65 20 47 6F 6E 7A 61 6C 65 7A 20 61 6E 64 20 43 61 6D 72 6F 6E 20 46 6F 72 6E 65 79 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 4D 6F 72 67 61 6E 20 61 6E 64 20 68 65 72 20 68 65 72 64 20 6F 66 20 6D 65 6F 77 20 6D 65 6F 77 73 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 48 75 6E 74 65 72 20 27 43 75 74 72 65 65 73 27 20 27 42 65 73 74 20 47 75 79 27 20 27 53 61 6D 6F 61 27 20 48 61 6E 73 6F 6E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 4A 75 6C 69 61 20 49 73 61 62 65 6C 6C 61 20 4D 6F 72 72 65 6C 6C 20 6C 6F 76 65 73 20 63 61 74 73 21 21 21 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 4B 79 6C 65 20 27 53 2E 48 2E 41 2E 44 2E 4F 2E 57 2E 4D 2E 4F 2E 53 2E 45 2E 53 2E 27 20 4C 69 74 74 6C 65 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 4A 61 63 6B 69 65 20 27 53 74 75 6E 6E 69 6E 67 69 6E 50 75 72 70 6C 65 27 20 46 61 6C 6C 69 73 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 4D 69 63 68 65 6C 6C 65 20 44 61 77 6E 20 57 68 69 74 6C 6F 77 2C 20 4D 69 73 73 20 44 61 77 6E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 43 6F 72 6E 20 61 6E 64 20 5A 6F 65 20 61 72 65 20 74 68 65 20 62 65 73 74 20 63 61 74 73 20 65 76 65 72 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 4A 65 72 65 6D 69 61 68 20 4D 75 73 68 72 6F 6F 6D 20 46 61 69 72 79 20 4C 69 6C 20 42 61 62 20 42 6F 6F 74 68 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 54 68 65 20 49 6E 73 74 69 74 75 74 65 20 66 6F 72 20 57 6F 72 6C 64 20 50 65 61 63 65 20 54 68 72 6F 75 67 68 20 53 6F 66 74 20 53 63 72 75 66 66 79 20 48 61 70 70 79 20 54 69 6D 65 73 00 78 69 6E 73 74 72 75 63 74 69 6F 6E 73 20 65 76 65 72 79 74 68 69 6E 67 20 49 20 74 79 70 65 20 68 65 72 65 20 67 6F 65 73 20 69 6E 20 74 68 65 20 63 72 65 64 69 74 73 2E 00 78 78 78 78 78 78 78 4E 61 6F 6D 69 20 27 73 6F 75 73 61 70 68 6F 6E 65 27 20 53 75 6C 6C 69 76 61 6E 2C 20 49 6E 73 74 72 75 6D 65 6E 74 61 6C 69 73 74 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 52 65 62 65 6B 61 68 20 54 68 6F 6D 70 73 6F 6E 2C 20 4D 61 72 6B 65 74 69 6E 67 20 43 6F 6F 72 64 69 6E 61 74 6F 72 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 51 75 69 63 6B 6C 79 20 77 61 72 70 20 62 61 63 6B 20 74 6F 20 79 6F 75 72 20 64 65 6E 20 66 72 6F 6D 20 61 6E 79 77 68 65 72 65 20 69 6E 20 74 68 65 20 77 6F 72 6C 64 2E 00 78 78 78 78 78 78 41 74 74 72 61 63 74 20 61 20 73 77 61 72 6D 20 6F 66 20 69 6E 2D 73 65 61 73 6F 6E 20 62 75 67 73 21 20 4E 6F 20 65 66 66 65 63 74 20 69 6E 20 77 69 6E 74 65 72 2E 00 78 78 78 78 78 78 78 78 42 65 63 6F 6D 65 20 69 6E 76 75 6C 6E 65 72 61 62 6C 65 20 74 6F 20 61 6C 6C 20 64 61 6D 61 67 65 20 66 6F 72 20 61 20 66 65 77 20 73 65 63 6F 6E 64 73 2E 00 78 78 78 78 78 78 78 78 78 78 78 51 75 69 63 6B 6C 79 20 74 68 72 6F 77 20 61 20 70 69 6E 65 63 6F 6E 65 20 66 6F 72 20 61 20 70 75 6E 69 73 68 69 6E 67 20 70 72 6F 6A 65 63 74 69 6C 65 20 61 74 74 61 63 6B 21 00 78 78 78 78 53 6F 6F 74 68 65 73 20 74 68 65 20 68 75 72 74 73 20 6F 66 20 61 6C 6C 20 6E 65 61 72 62 79 20 61 6C 6C 69 65 73 20 6F 76 65 72 20 74 69 6D 65 2E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 42 65 6C 6C 6F 77 20 61 20 6D 69 67 68 74 79 20 63 68 61 6C 6C 65 6E 67 65 20 74 6F 20 66 6F 72 63 65 20 79 6F 75 72 20 65 6E 65 6D 69 65 73 20 74 6F 20 66 6C 65 65 21 00 78 78 78 78 78 78 78 43 61 6C 6C 20 74 77 6F 20 63 61 74 73 20 6F 66 20 79 6F 75 72 20 63 6F 6C 6F 6E 79 20 74 6F 20 79 6F 75 72 20 73 69 64 65 20 74 6F 20 61 69 64 20 79 6F 75 20 69 6E 20 62 61 74 74 6C 65 21 00 49 6E 63 72 65 61 73 65 73 20 79 6F 75 72 20 72 75 6E 6E 69 6E 67 20 73 70 65 65 64 20 66 6F 72 20 61 20 73 68 6F 72 74 20 74 69 6D 65 2E 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? 12 00 00 00 00 00 00 00 00 01 00 00 00 ?? ?? ?? ?? 00 00 00 00 00 00 00 00 01 00 00 00 32 45 33 39 37 31 42 30 42 34 45 39 35 30 44 36 43 42 39 34 36 36 43 38 33 34 37 34 33 32 45 36 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 38 37 35 33 41 34 42 38 41 43 33 31 36 43 39 36 43 43 31 45 39 43 35 35 39 38 41 33 36 44 41 33 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 39 33 30 37 35 37 42 42 46 31 45 46 44 34 42 41 43 31 32 31 32 43 39 39 37 32 39 44 31 34 42 32 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 30 39 31 34 45 46 39 41 46 41 33 37 30 33 39 43 39 39 35 35 31 35 30 35 35 32 31 34 38 38 36 36 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 46 39 34 38 32 37 46 45 43 42 38 36 34 37 37 32 46 36 39 39 35 41 39 35 31 39 36 43 36 37 33 42 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 41 43 30 33 42 37 39 33 42 38 30 35 31 32 44 30 42 39 32 41 34 44 46 34 41 46 42 41 33 39 30 37 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 31 42 37 31 36 43 31 39 43 35 31 43 30 44 46 31 41 39 38 41 39 31 39 44 43 36 37 44 33 45 31 32 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 45 35 34 43 41 37 44 42 41 35 34 31 43 46 34 36 45 30 37 30 37 37 38 38 30 31 37 45 43 31 38 46 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 37 46 32 46 36 31 46 43 39 31 32 35 39 46 32 39 41 36 44 32 34 43 32 39 32 33 37 30 35 45 39 32 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 34 43 36 39 31 34 44 44 35 39 45 36 46 30 36 46 30 42 34 45 39 36 32 30 37 42 41 33 33 41 31 41 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 44 38 34 38 36 39 43 45 37 45 36 41 34 33 31 45 41 32 32 38 45 36 46 37 30 46 30 45 41 43 36 46 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 42 42 41 33 33 32 35 42 33 36 38 35 33 31 35 42 33 42 32 37 41 44 43 37 38 34 37 39 31 34 44 33 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 35 44 42 36 46 30 46 36 42 35 38 46 32 39 46 43 37 32 31 43 44 35 35 38 39 41 34 36 30 35 46 35 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 43 35 35 34 36 42 35 35 30 31 39 37 46 35 33 41 35 43 44 37 30 41 42 36 46 33 37 46 37 30 33 35 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 30 44 46 39 33 38 32 45 38 33 39 46 34 42 39 34 43 38 39 45 45 39 45 46 30 41 44 31 44 39 38 45 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 32 42 32 35 36 32 36 46 31 44 34 41 41 45 35 33 33 41 42 36 35 46 38 41 39 44 33 43 41 42 31 37 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 43 36 43 32 41 30 43 30 42 37 39 38 36 35 32 30 39 32 44 45 34 44 45 36 34 36 35 41 39 44 34 33 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 45 30 31 35 37 42 31 35 33 46 46 37 32 42 45 30 43 42 34 38 38 42 41 46 39 31 44 46 34 35 35 34 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 42 44 34 44 31 42 41 33 37 45 36 36 34 34 43 31 42 33 43 36 38 44 46 32 33 43 44 30 41 38 38 32 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 38 33 31 45 31 36 39 33 36 35 31 46 38 43 34 44 45 30 30 32 37 44 37 31 44 44 42 30 31 32 41 36 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 32 41 43 43 46 42 32 30 30 36 36 31 32 36 31 45 43 30 32 42 42 38 43 34 34 38 42 36 33 45 36 41 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 41 30 33 42 36 46 41 34 34 30 33 33 33 35 37 37 34 33 38 41 41 37 30 32 45 31 39 33 42 34 34 43 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 33 36 46 32 42 46 46 32 35 39 45 32 45 43 42 43 45 32 35 35 46 45 45 44 32 44 44 30 39 45 43 45 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 46 36 35 35 34 46 45 31 35 43 35 43 30 32 39 44 42 46 46 41 41 43 33 45 45 34 30 42 39 36 42 46 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 41 43 31 38 42 43 45 38 44 31 33 31 38 39 35 33 39 32 35 41 41 34 33 32 33 35 35 32 37 37 35 38 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 45 31 38 42 36 42 42 39 34 36 38 45 31 37 41 43 30 38 31 44 38 32 36 39 41 46 36 33 42 33 37 42 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 38 36 42 45 32 41 45 31 33 43 37 37 31 39 45 42 43 35 41 33 34 43 41 38 31 38 30 35 36 30 39 31 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 38 36 42 45 32 41 45 31 33 43 37 37 31 39 45 42 43 35 41 33 34 43 41 38 31 38 30 35 36 30 39 31 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 46 33 44 42 43 34 45 36 35 46 33 44 46 41 43 45 36 39 45 39 41 33 36 33 35 35 44 33 30 41 38 42 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 33 43 44 31 35 30 32 38 33 32 44 30 35 41 42 32 32 33 39 30 43 42 46 32 36 36 43 43 39 46 44 35 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 41 44 46 35 38 32 43 43 36 45 34 33 31 44 33 35 34 37 32 44 33 30 42 46 39 33 36 31 35 36 37 34 00 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78 78</t>
   </si>
 </sst>
 </file>
@@ -498,10 +504,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9015E4F-4E77-4537-9940-2CDA23F7F087}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,6 +655,14 @@
       </c>
       <c r="B21" t="s">
         <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
